--- a/card.xlsx
+++ b/card.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yauhe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yauhe\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -140,9 +140,6 @@
     <t>Всего наименований 1, на сумму 4'095,36 руб.</t>
   </si>
   <si>
-    <t>Сумма прописью: Четыре тысячи деяносто пять рублей 36 коп.</t>
-  </si>
-  <si>
     <t>На основании заявки:</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Главный бухгалтер:_____________________________/Загорскис А.С./</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма прописью: </t>
   </si>
 </sst>
 </file>
@@ -432,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -449,9 +452,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +736,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,54 +771,54 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -828,13 +828,13 @@
       <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -844,13 +844,13 @@
       <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
@@ -956,11 +956,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="23" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1018,7 +1018,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -1032,7 +1032,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
